--- a/Spec Sheets/InductanceCalculator.xlsx
+++ b/Spec Sheets/InductanceCalculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\w\OTP\Spec Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5049860E-4388-44A3-A2E8-14EF5EC321B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E689D7-E92D-4C56-A3AB-A4D38DA8A65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="15480" windowHeight="11325" xr2:uid="{D0432AD1-2955-477F-86D8-415FF489E918}"/>
+    <workbookView xWindow="12240" yWindow="3510" windowWidth="12870" windowHeight="11385" xr2:uid="{D0432AD1-2955-477F-86D8-415FF489E918}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -409,20 +412,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F8450E-EA36-4EF2-903F-C11B423E6EEB}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -439,7 +442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>57000</v>
       </c>
@@ -451,15 +454,15 @@
         <v>3.2484733649564539E-3</v>
       </c>
       <c r="E2">
-        <f>D2*1000</f>
+        <f t="shared" ref="E2:F9" si="0">D2*1000</f>
         <v>3.2484733649564541</v>
       </c>
       <c r="F2">
-        <f>E2*1000</f>
+        <f t="shared" si="0"/>
         <v>3248.4733649564541</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>190000</v>
       </c>
@@ -471,15 +474,15 @@
         <v>4.2525469504884483E-4</v>
       </c>
       <c r="E3">
-        <f>D3*1000</f>
+        <f t="shared" si="0"/>
         <v>0.42525469504884483</v>
       </c>
       <c r="F3">
-        <f>E3*1000</f>
+        <f t="shared" si="0"/>
         <v>425.25469504884484</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>177000</v>
       </c>
@@ -491,12 +494,112 @@
         <v>1.2732685301301648E-4</v>
       </c>
       <c r="E4">
-        <f>D4*1000</f>
+        <f t="shared" si="0"/>
         <v>0.12732685301301649</v>
       </c>
       <c r="F4">
-        <f>E4*1000</f>
+        <f t="shared" si="0"/>
         <v>127.32685301301649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>65000</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8.5E-9</v>
+      </c>
+      <c r="D5" s="4">
+        <f>(1/(2*PI()*A5))^2/B5</f>
+        <v>7.0533368355264704E-4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.70533368355264703</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>705.33368355264702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>30000</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.9999999999999995E-9</v>
+      </c>
+      <c r="D6" s="4">
+        <f>(1/(2*PI()*A6))^2/B6</f>
+        <v>3.1271970259980791E-3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3.127197025998079</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3127.197025998079</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>90000</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="D7" s="4">
+        <f>(1/(2*PI()*A7))^2/B7</f>
+        <v>6.2543940519961582E-4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.62543940519961583</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>625.43940519961586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>127000</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4.0000000000000002E-9</v>
+      </c>
+      <c r="D8" s="4">
+        <f>(1/(2*PI()*A8))^2/B8</f>
+        <v>3.9262037185480264E-4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.39262037185480264</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>392.62037185480261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>125000</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.4999999999999999E-9</v>
+      </c>
+      <c r="D9" s="4">
+        <f>(1/(2*PI()*A9))^2/B9</f>
+        <v>4.631825537935442E-4</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.46318255379354417</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>463.18255379354417</v>
       </c>
     </row>
   </sheetData>

--- a/Spec Sheets/InductanceCalculator.xlsx
+++ b/Spec Sheets/InductanceCalculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\w\OTP\Spec Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E689D7-E92D-4C56-A3AB-A4D38DA8A65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A0ACFF-6EA9-495E-ABD6-A6176BE1E95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="3510" windowWidth="12870" windowHeight="11385" xr2:uid="{D0432AD1-2955-477F-86D8-415FF489E918}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{D0432AD1-2955-477F-86D8-415FF489E918}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Frequency (Hz)</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>uH</t>
+  </si>
+  <si>
+    <t>custom piezo for 1/2AA battery</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F8450E-EA36-4EF2-903F-C11B423E6EEB}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +428,7 @@
     <col min="4" max="4" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -442,7 +445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>57000</v>
       </c>
@@ -450,19 +453,19 @@
         <v>2.4E-9</v>
       </c>
       <c r="D2" s="4">
-        <f>(1/(2*PI()*A2))^2/B2</f>
+        <f t="shared" ref="D2:D10" si="0">(1/(2*PI()*A2))^2/B2</f>
         <v>3.2484733649564539E-3</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:F9" si="0">D2*1000</f>
+        <f t="shared" ref="E2:F10" si="1">D2*1000</f>
         <v>3.2484733649564541</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3248.4733649564541</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>190000</v>
       </c>
@@ -470,19 +473,19 @@
         <v>1.6500000000000001E-9</v>
       </c>
       <c r="D3" s="4">
-        <f>(1/(2*PI()*A3))^2/B3</f>
+        <f t="shared" si="0"/>
         <v>4.2525469504884483E-4</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42525469504884483</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>425.25469504884484</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>177000</v>
       </c>
@@ -490,19 +493,19 @@
         <v>6.3499999999999998E-9</v>
       </c>
       <c r="D4" s="4">
-        <f>(1/(2*PI()*A4))^2/B4</f>
+        <f t="shared" si="0"/>
         <v>1.2732685301301648E-4</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12732685301301649</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>127.32685301301649</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>65000</v>
       </c>
@@ -510,19 +513,19 @@
         <v>8.5E-9</v>
       </c>
       <c r="D5" s="4">
-        <f>(1/(2*PI()*A5))^2/B5</f>
+        <f t="shared" si="0"/>
         <v>7.0533368355264704E-4</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.70533368355264703</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>705.33368355264702</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30000</v>
       </c>
@@ -530,19 +533,19 @@
         <v>8.9999999999999995E-9</v>
       </c>
       <c r="D6" s="4">
-        <f>(1/(2*PI()*A6))^2/B6</f>
+        <f t="shared" si="0"/>
         <v>3.1271970259980791E-3</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.127197025998079</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3127.197025998079</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>90000</v>
       </c>
@@ -550,19 +553,19 @@
         <v>5.0000000000000001E-9</v>
       </c>
       <c r="D7" s="4">
-        <f>(1/(2*PI()*A7))^2/B7</f>
+        <f t="shared" si="0"/>
         <v>6.2543940519961582E-4</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.62543940519961583</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>625.43940519961586</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>127000</v>
       </c>
@@ -570,19 +573,19 @@
         <v>4.0000000000000002E-9</v>
       </c>
       <c r="D8" s="4">
-        <f>(1/(2*PI()*A8))^2/B8</f>
+        <f t="shared" si="0"/>
         <v>3.9262037185480264E-4</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.39262037185480264</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>392.62037185480261</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>125000</v>
       </c>
@@ -590,16 +593,39 @@
         <v>3.4999999999999999E-9</v>
       </c>
       <c r="D9" s="4">
-        <f>(1/(2*PI()*A9))^2/B9</f>
+        <f t="shared" si="0"/>
         <v>4.631825537935442E-4</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.46318255379354417</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>463.18255379354417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>66500</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.3680000000000001E-8</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4188852965754067E-4</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.24188852965754068</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>241.88852965754069</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
